--- a/참고할산출물(보고서)/[완료] 요구사항 정의서_1조.xlsx
+++ b/참고할산출물(보고서)/[완료] 요구사항 정의서_1조.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\minipj_1\참고할산출물(보고서)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{175F457A-18AC-41CA-AA04-65928F385A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6581F9D9-0AAB-460B-AEB8-709F75FF0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28935" yWindow="2190" windowWidth="23010" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요구사항 정의서 1차 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="요구사항 정의서 1차 (3)" sheetId="5" r:id="rId2"/>
     <sheet name="요구사항 정의서 1차" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="168">
   <si>
     <t>『   요구사항 정의서   』</t>
   </si>
@@ -398,9 +398,6 @@
     <t>소주제</t>
   </si>
   <si>
-    <t>^</t>
-  </si>
-  <si>
     <t>박성식</t>
   </si>
   <si>
@@ -410,16 +407,20 @@
     <t>이동훈</t>
   </si>
   <si>
-    <t>서경환 (본인)</t>
-  </si>
-  <si>
     <t>Scikit-learn</t>
+  </si>
+  <si>
+    <t>서경환</t>
   </si>
   <si>
     <t>서경환</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>이화섭</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>소분류 (기능 상세 및 목표 KPI)</t>
   </si>
   <si>
@@ -453,6 +454,69 @@
     <t>• 자치구별 CCTV 설치 밀도와 교통사고 발생 건수의 상관계수($r$) 산출</t>
   </si>
   <si>
+    <t>최적 입지 제안</t>
+  </si>
+  <si>
+    <t>• 사고 다발 지역 대비 CCTV 부족 지역 시각화 및 설치 제안</t>
+  </si>
+  <si>
+    <t>2. 차량 등록 기반 교통량 예측</t>
+  </si>
+  <si>
+    <t>회귀 예측 모델링</t>
+  </si>
+  <si>
+    <t>• 차량 등록 증가가 실제 도로 정체(교통량)에 미치는 영향 수치화</t>
+  </si>
+  <si>
+    <t>3. 대중교통 전환 효과 측정</t>
+  </si>
+  <si>
+    <t>회귀 계수 분석</t>
+  </si>
+  <si>
+    <t>• 승용차 등록 추이와 대중교통(버스/지하철) 이용 패턴 비교</t>
+  </si>
+  <si>
+    <t>• 대중교통 이용 1% 증가 시 승용차 감소 영향력($\beta$) 산출</t>
+  </si>
+  <si>
+    <t>4. 생활인구 기반 수요 분석</t>
+  </si>
+  <si>
+    <t>분류 모델링 (Classification)</t>
+  </si>
+  <si>
+    <t>• 거주 인구가 아닌 '실제 유동 인구' 기반의 차량 증가 여부 예측</t>
+  </si>
+  <si>
+    <t>5. 도시 수용성(주차난) 진단</t>
+  </si>
+  <si>
+    <t>주차 수급 불균형 분석</t>
+  </si>
+  <si>
+    <t>• 자동차 등록 대수 대비 주차 면적 확보 수준(수급율) 분석</t>
+  </si>
+  <si>
+    <t>• 주차난 심화 하위 20% 집중 관리 지역 선정 (KPI)</t>
+  </si>
+  <si>
+    <t>고도화된 예측 모델</t>
+  </si>
+  <si>
+    <t>• 다항 회귀(Polynomial) + 릿지(Ridge) 규제를 통한 과대적합 제어</t>
+  </si>
+  <si>
+    <t>• 데이터 단위를 '만 단위'로 변환하여 모델 학습 성능 최적화</t>
+  </si>
+  <si>
+    <t>• 목표: 차량 증감 분류 모델 정확도(Accuracy) 75% 이상 달성</t>
+  </si>
+  <si>
+    <t>• 선형/다항 회귀 활용 교통량 예측 (목표: 결정계수 $R^2$ 0.80 이상)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">• </t>
     </r>
@@ -465,30 +529,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>목표: 상관계수 0.6 이상 도출 및 유의성($p &lt; 0.05$) 검증</t>
-    </r>
-  </si>
-  <si>
-    <t>미정</t>
-  </si>
-  <si>
-    <t>최적 입지 제안</t>
-  </si>
-  <si>
-    <t>• 사고 다발 지역 대비 CCTV 부족 지역 시각화 및 설치 제안</t>
-  </si>
-  <si>
-    <t>2. 차량 등록 기반 교통량 예측</t>
-  </si>
-  <si>
-    <t>회귀 예측 모델링</t>
-  </si>
-  <si>
-    <t>• 차량 등록 증가가 실제 도로 정체(교통량)에 미치는 영향 수치화</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">• 선형/다항 회귀 활용 교통량 예측 </t>
+      <t>[KPI] 상관계수 0.6 이상 도출 및 유의성($p &lt; 0.05$) 검증</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
     </r>
     <r>
       <rPr>
@@ -499,29 +545,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(목표: 결정계수 $R^2$ 0.80 이상)</t>
-    </r>
-  </si>
-  <si>
-    <t>3. 대중교통 전환 효과 측정</t>
-  </si>
-  <si>
-    <t>회귀 계수 분석</t>
-  </si>
-  <si>
-    <t>• 승용차 등록 추이와 대중교통(버스/지하철) 이용 패턴 비교</t>
-  </si>
-  <si>
-    <t>• 대중교통 이용 1% 증가 시 승용차 감소 영향력($\beta$) 산출</t>
-  </si>
-  <si>
-    <t>4. 생활인구 기반 수요 분석</t>
-  </si>
-  <si>
-    <t>분류 모델링 (Classification)</t>
-  </si>
-  <si>
-    <t>• 거주 인구가 아닌 '실제 유동 인구' 기반의 차량 증가 여부 예측</t>
+      <t>[KPI] 선형/다항 회귀 활용 교통량 예측 결정계수($R^2$) 0.80 이상</t>
+    </r>
   </si>
   <si>
     <r>
@@ -536,36 +561,923 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>목표: 차량 증감 분류 모델 정확도(Accuracy) 75% 이상 달성</t>
-    </r>
-  </si>
-  <si>
-    <t>5. 도시 수용성(주차난) 진단</t>
-  </si>
-  <si>
-    <t>주차 수급 불균형 분석</t>
-  </si>
-  <si>
-    <t>• 자동차 등록 대수 대비 주차 면적 확보 수준(수급율) 분석</t>
-  </si>
-  <si>
-    <t>• 주차난 심화 하위 20% 집중 관리 지역 선정 (KPI)</t>
-  </si>
-  <si>
-    <t>고도화된 예측 모델</t>
-  </si>
-  <si>
-    <t>• 다항 회귀(Polynomial) + 릿지(Ridge) 규제를 통한 과대적합 제어</t>
-  </si>
-  <si>
-    <t>• 데이터 단위를 '만 단위'로 변환하여 모델 학습 성능 최적화</t>
+      <t>[KPI] 대중교통 이용 1% 증가 시 승용차 감소 영향력($\beta$) 산출</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[KPI] 차량 증감 분류 모델 정확도(Accuracy) 75% 이상 달성</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[KPI] 주차난 심화 하위 20% 집중 관리 지역 선정</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• CCTV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사고당사망률의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상관계수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">($r$) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산출</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사고의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심각정도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>낮음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심각</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분류하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>오면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심각도를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목표</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>교통사고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발생</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특성과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CCTV </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>현황을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기반으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심각도와의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상관관계를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석하고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사고</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>심각도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능성을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐색적으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검증</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추이와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대중교통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지하철</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="NanumGothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비교 및 자동차 대수 변화 예측</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -633,15 +1545,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="NanumGothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="NanumGothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF1F1F1F"/>
-      <name val="굴림"/>
-      <family val="2"/>
+      <name val="NanumGothic"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -676,6 +1627,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -876,7 +1833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -997,8 +1954,62 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1219,10 +2230,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1231,10 +2242,9 @@
     <col min="4" max="4" width="34.88671875" customWidth="1"/>
     <col min="5" max="5" width="81.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="75.88671875" customWidth="1"/>
-    <col min="7" max="7" width="70.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.2">
+    <row r="1" spans="1:9" ht="13.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1243,9 +2253,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.2">
+    </row>
+    <row r="2" spans="1:9" ht="13.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1254,22 +2263,20 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
+    </row>
+    <row r="3" spans="1:9" ht="40.799999999999997" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" ht="13.8" thickBot="1">
+    </row>
+    <row r="4" spans="1:9" ht="13.8" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -1278,374 +2285,334 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" ht="13.8" thickBot="1">
+    </row>
+    <row r="5" spans="1:9" ht="30.6" customHeight="1" thickBot="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>4</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" ht="13.8" thickBot="1">
+    </row>
+    <row r="6" spans="1:9" ht="16.2" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="27" customHeight="1" thickBot="1">
+    </row>
+    <row r="7" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="44"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="50"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-    </row>
-    <row r="8" spans="1:10" ht="13.8" thickBot="1">
+    </row>
+    <row r="8" spans="1:9" ht="16.2" thickBot="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="39" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:10" ht="13.8" thickBot="1">
+    </row>
+    <row r="9" spans="1:9" ht="16.2" customHeight="1" thickBot="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="62" t="s">
         <v>135</v>
       </c>
       <c r="D9" s="40" t="s">
         <v>136</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>139</v>
+        <v>164</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>126</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
       <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-    </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1" thickBot="1">
+    </row>
+    <row r="10" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="41"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="44"/>
+      <c r="E10" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="50"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
       <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" ht="27" customHeight="1" thickBot="1">
+    </row>
+    <row r="11" spans="1:9" ht="27" customHeight="1" thickBot="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="42"/>
       <c r="E11" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="45"/>
+        <v>166</v>
+      </c>
+      <c r="F11" s="52"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-    </row>
-    <row r="12" spans="1:10" ht="13.8" thickBot="1">
+    </row>
+    <row r="12" spans="1:9" ht="23.4" customHeight="1" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>120</v>
-      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="34" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="35"/>
+        <v>139</v>
+      </c>
+      <c r="F12" s="54"/>
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
       <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-    </row>
-    <row r="13" spans="1:10" ht="13.8" thickBot="1">
+    </row>
+    <row r="13" spans="1:9" ht="16.2" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="40" t="s">
+      <c r="B13" s="57"/>
+      <c r="C13" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>121</v>
+      <c r="F13" s="48" t="s">
+        <v>120</v>
       </c>
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
       <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-    </row>
-    <row r="14" spans="1:10" ht="13.8" thickBot="1">
+    </row>
+    <row r="14" spans="1:9" ht="16.2" thickBot="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="36"/>
       <c r="H14" s="36"/>
       <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-    </row>
-    <row r="15" spans="1:10" ht="13.8" thickBot="1">
+    </row>
+    <row r="15" spans="1:9" ht="16.2" thickBot="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="14"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" s="52"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="13.2">
+    </row>
+    <row r="16" spans="1:9" ht="13.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>146</v>
+      <c r="B16" s="57"/>
+      <c r="C16" s="59" t="s">
+        <v>143</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="29"/>
+        <v>167</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="13.2">
+    </row>
+    <row r="17" spans="1:8" ht="13.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="60"/>
       <c r="D17" s="41"/>
       <c r="E17" s="38"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="28"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" ht="13.8" thickBot="1">
+    </row>
+    <row r="18" spans="1:8" ht="13.8" thickBot="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="61"/>
       <c r="D18" s="42"/>
       <c r="E18" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="52"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.6">
+      <c r="A19" s="1"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="F18" s="45"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="13.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="40" t="s">
+      <c r="F19" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.6">
+      <c r="A20" s="1"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="52"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.6">
+      <c r="A22" s="1"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="62" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D22" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E22" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="F22" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.6">
+      <c r="A23" s="1"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.2" thickBot="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="52"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.6">
+      <c r="A25" s="1"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="48" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="13.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A21" s="1"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="13.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="13.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="13.8" thickBot="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="13.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="13.2">
+    </row>
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="1"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="41"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" ht="13.8" thickBot="1">
+    </row>
+    <row r="27" spans="1:8" ht="16.2" thickBot="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="F27" s="42"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="52"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" ht="13.2">
+    </row>
+    <row r="28" spans="1:8" ht="13.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1654,9 +2621,8 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="13.2">
+    </row>
+    <row r="29" spans="1:8" ht="13.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1665,9 +2631,8 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="13.2">
+    </row>
+    <row r="30" spans="1:8" ht="13.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1676,9 +2641,8 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="13.2">
+    </row>
+    <row r="31" spans="1:8" ht="13.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1687,9 +2651,8 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="13.2">
+    </row>
+    <row r="32" spans="1:8" ht="13.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1698,39 +2661,30 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="23">
     <mergeCell ref="F19:F21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
     <mergeCell ref="D22:D24"/>
     <mergeCell ref="F22:F24"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
     <mergeCell ref="D25:D27"/>
     <mergeCell ref="F25:F27"/>
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C22:C27"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="F13:F15"/>
-    <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="F16:F18"/>
+    <mergeCell ref="B9:B27"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="F6:F8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G16:G23"/>
-    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C9:C12"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
   </mergeCells>
@@ -1742,311 +2696,485 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAFBCBC-FDC2-40D2-B3D3-6949CF3642B5}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144211E3-43AB-4833-8AB0-F29FB77323C4}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="81.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.200000000000003" thickBot="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:9" ht="13.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="40.799999999999997" customHeight="1">
+      <c r="A3" s="1"/>
+      <c r="B3" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="30.6" customHeight="1" thickBot="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="C5" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E5" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="F5" s="34" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="79.2">
-      <c r="A2" s="40" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="C6" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="D6" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E6" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="F6" s="40" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:5" ht="79.8" thickBot="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="39" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="24.6" customHeight="1" thickBot="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="45"/>
-    </row>
-    <row r="5" spans="1:5" ht="92.4">
-      <c r="A5" s="40" t="s">
+      <c r="F8" s="42"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="C9" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="D9" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E9" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="43" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="44"/>
-    </row>
-    <row r="7" spans="1:5" ht="79.8" thickBot="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="45"/>
-    </row>
-    <row r="8" spans="1:5" ht="66.599999999999994" thickBot="1">
-      <c r="A8" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="35"/>
-    </row>
-    <row r="9" spans="1:5" ht="79.2">
-      <c r="A9" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="43" t="s">
+      <c r="F9" s="40" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="41"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A10" s="1"/>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" spans="1:5" ht="93" thickBot="1">
-      <c r="A11" s="42"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="27" customHeight="1" thickBot="1">
+      <c r="A11" s="1"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="39" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="42"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" ht="23.4" customHeight="1" thickBot="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.8" thickBot="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F15" s="42"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="45"/>
-    </row>
-    <row r="12" spans="1:5" ht="66">
-      <c r="A12" s="40" t="s">
+      <c r="F16" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.8" thickBot="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="42"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="13.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="40" t="s">
+      <c r="C19" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D19" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E19" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="40" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="44"/>
-    </row>
-    <row r="14" spans="1:5" ht="79.8" thickBot="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="45"/>
-    </row>
-    <row r="15" spans="1:5" ht="66">
-      <c r="A15" s="40" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.8" thickBot="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="C22" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="D22" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="E22" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="F22" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="13.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.8" thickBot="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="13.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="44"/>
-    </row>
-    <row r="17" spans="1:5" ht="79.8" thickBot="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" s="45"/>
-    </row>
-    <row r="18" spans="1:5" ht="66">
-      <c r="A18" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="37" t="s">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.8" thickBot="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="E18" s="40" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="41"/>
-    </row>
-    <row r="20" spans="1:5" ht="66.599999999999994" thickBot="1">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="E20" s="42"/>
-    </row>
-    <row r="21" spans="1:5" ht="79.2">
-      <c r="A21" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="41"/>
-    </row>
-    <row r="23" spans="1:5" ht="66.599999999999994" thickBot="1">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="39" t="s">
-        <v>160</v>
-      </c>
-      <c r="E23" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="13.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A9:A11"/>
+  <mergeCells count="29">
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="F25:F27"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
 </worksheet>
 </file>
 
@@ -2059,7 +3187,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C10"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
